--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">課題管理台帳!$7:$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,276 @@
       <t>ヤマダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+抽出条件の「事業部」、「エリア」は交通宿泊手配テーブルの「所属事業部（担当MR）」、「所属エリア（担当MR）」という理解でよいか？</t>
+    <rPh sb="26" eb="28">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>雉子谷</t>
+    <rPh sb="0" eb="3">
+      <t>キジタニ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+抽出条件の「会合名」は、会場手配テーブルの「会合名」ということでよいか？
+（講演会テーブルに「講演会名」というのもある。「会合名」とは別物と理解してよい？）</t>
+    <rPh sb="32" eb="34">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ベツモノ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+抽出条件の「講演会担当者」は何を指すか？
+講演会テーブルの「企画担当者」？「手配担当者」？
+または、会場手配テーブルにも「担当者」？</t>
+    <rPh sb="32" eb="35">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+一覧に「実施日」という列があるが、ここには何の値を表示すればよいのか？
+講演会テーブルの「講演会開催日From」「講演会開催日To」か？
+または会場手配テーブルに「実施予定日」はあるが「実施日」はないので、追加して使用すべきか？</t>
+    <rPh sb="1" eb="3">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ジッシビ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+一覧に「Timestamp」という列があるが、現時点で宿泊交通テーブルに「Timestamp」という項目はない。
+ここには、会場手配テーブルの「Timestamp」を表示すればよいのか？
+それとも宿泊交通テーブルに「Timestamp」列を追加して表示すればよいのか？（宿泊交通テーブルに列追加の場合は、キーにする必要がある？）</t>
+    <rPh sb="1" eb="3">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+一覧に「担当者」という列があるが、ここにはDRに紐づく「担当MR」を表示すればよいか？</t>
+    <rPh sb="30" eb="33">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+手配書一括印刷ボタン押下時にプレビュー画面へ遷移し、そのタイミングで手配ステータスを変更するということでよいか？（プレビューで印刷する/しないに関わらず）
+また、ステータスは、新着を示す値（受付中？）から次のステータス（受付済？）にするということでよかったか？</t>
+    <rPh sb="26" eb="29">
+      <t>テハイショ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -271,9 +541,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -328,6 +598,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,22 +750,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -497,33 +774,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <condense val="0"/>
@@ -969,8 +1234,8 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,7 +1263,7 @@
       <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1010,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="16"/>
-      <c r="L2" s="19"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1022,7 +1287,7 @@
       <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1032,7 +1297,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -1102,15 +1367,23 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <f t="shared" ref="A9:A33" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="4"/>
       <c r="H9" s="9"/>
@@ -1119,15 +1392,23 @@
       <c r="K9" s="12"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="4"/>
       <c r="H10" s="9"/>
@@ -1136,15 +1417,23 @@
       <c r="K10" s="10"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
@@ -1153,15 +1442,23 @@
       <c r="K11" s="12"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="4"/>
       <c r="H12" s="9"/>
@@ -1170,15 +1467,23 @@
       <c r="K12" s="12"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
       <c r="H13" s="10"/>
@@ -1187,15 +1492,23 @@
       <c r="K13" s="12"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="4"/>
       <c r="H14" s="9"/>
@@ -1204,15 +1517,23 @@
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="9">
+        <v>41529</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="4"/>
       <c r="H15" s="9"/>
@@ -1535,19 +1856,24 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A8:L12 A25:L33">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:L8 A25:L33 A9:A12 F9:L12">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:L17 A19:L24">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="A16:L17 A19:L24 A13:A15 F13:L15">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:L18">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:E15">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="12720"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理台帳" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -270,44 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
-抽出条件の「事業部」、「エリア」は交通宿泊手配テーブルの「所属事業部（担当MR）」、「所属エリア（担当MR）」という理解でよいか？</t>
-    <rPh sb="26" eb="28">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>リカイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>雉子谷</t>
     <rPh sb="0" eb="3">
       <t>キジタニ</t>
@@ -315,223 +277,398 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
+手配書一括印刷ボタン押下時にプレビュー画面へ遷移し、そのタイミングで手配ステータスを変更するということでよいか？（プレビューで印刷する/しないに関わらず）
+また、ステータスは、新着を示す値（受付中？）から次のステータス（受付済？）にするということでよかったか？</t>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テハイショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
+抽出条件の「事業部」、「エリア」は交通宿泊手配テーブルの「所属事業部（担当MR）」、「所属エリア（担当MR）」という理解でよいか？</t>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
 抽出条件の「会合名」は、会場手配テーブルの「会合名」ということでよいか？
 （講演会テーブルに「講演会名」というのもある。「会合名」とは別物と理解してよい？）</t>
-    <rPh sb="32" eb="34">
+    <rPh sb="36" eb="38">
       <t>カイゴウ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="38" eb="39">
       <t>メイ</t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="42" eb="44">
       <t>カイジョウ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="44" eb="46">
       <t>テハイ</t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="52" eb="54">
       <t>カイゴウ</t>
     </rPh>
-    <rPh sb="50" eb="51">
+    <rPh sb="54" eb="55">
       <t>メイ</t>
     </rPh>
-    <rPh sb="64" eb="67">
+    <rPh sb="68" eb="71">
       <t>コウエンカイ</t>
     </rPh>
-    <rPh sb="73" eb="76">
+    <rPh sb="77" eb="80">
       <t>コウエンカイ</t>
     </rPh>
-    <rPh sb="76" eb="77">
+    <rPh sb="80" eb="81">
       <t>メイ</t>
     </rPh>
-    <rPh sb="87" eb="89">
+    <rPh sb="91" eb="93">
       <t>カイゴウ</t>
     </rPh>
-    <rPh sb="89" eb="90">
+    <rPh sb="93" eb="94">
       <t>メイ</t>
     </rPh>
-    <rPh sb="93" eb="95">
+    <rPh sb="97" eb="99">
       <t>ベツモノ</t>
     </rPh>
-    <rPh sb="96" eb="98">
+    <rPh sb="100" eb="102">
       <t>リカイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
 抽出条件の「講演会担当者」は何を指すか？
 講演会テーブルの「企画担当者」？「手配担当者」？
 または、会場手配テーブルにも「担当者」？</t>
-    <rPh sb="32" eb="35">
+    <rPh sb="36" eb="39">
       <t>コウエンカイ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="39" eb="41">
       <t>タントウ</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="41" eb="42">
       <t>シャ</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="44" eb="45">
       <t>ナニ</t>
     </rPh>
-    <rPh sb="42" eb="43">
+    <rPh sb="46" eb="47">
       <t>サ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
 一覧に「実施日」という列があるが、ここには何の値を表示すればよいのか？
 講演会テーブルの「講演会開催日From」「講演会開催日To」か？
 または会場手配テーブルに「実施予定日」はあるが「実施日」はないので、追加して使用すべきか？</t>
     <rPh sb="1" eb="3">
       <t>シンチャク</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="30" eb="32">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="34" eb="36">
       <t>ジッシ</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="36" eb="37">
       <t>ビ</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="41" eb="42">
       <t>レツ</t>
     </rPh>
-    <rPh sb="47" eb="48">
+    <rPh sb="51" eb="52">
       <t>ナン</t>
     </rPh>
-    <rPh sb="49" eb="50">
+    <rPh sb="53" eb="54">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="55" eb="57">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="108" eb="110">
+    <rPh sb="112" eb="114">
       <t>ジッシ</t>
     </rPh>
-    <rPh sb="110" eb="112">
+    <rPh sb="114" eb="116">
       <t>ヨテイ</t>
     </rPh>
-    <rPh sb="112" eb="113">
+    <rPh sb="116" eb="117">
       <t>ビ</t>
     </rPh>
-    <rPh sb="119" eb="122">
+    <rPh sb="123" eb="126">
       <t>ジッシビ</t>
     </rPh>
-    <rPh sb="129" eb="131">
+    <rPh sb="133" eb="135">
       <t>ツイカ</t>
     </rPh>
-    <rPh sb="133" eb="135">
+    <rPh sb="137" eb="139">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
 一覧に「Timestamp」という列があるが、現時点で宿泊交通テーブルに「Timestamp」という項目はない。
 ここには、会場手配テーブルの「Timestamp」を表示すればよいのか？
 それとも宿泊交通テーブルに「Timestamp」列を追加して表示すればよいのか？（宿泊交通テーブルに列追加の場合は、キーにする必要がある？）</t>
     <rPh sb="1" eb="3">
       <t>シンチャク</t>
     </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼（一覧）画面＞
+一覧に「担当者」という列があるが、ここにはDRに紐づく「担当MR」を表示すればよいか？</t>
+    <rPh sb="34" eb="37">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+システム想定項目の宿泊・交通テーブルで、タクシーチケット回答のカテゴリ内に利用額・明細・VOID・印刷日・請求月があるが、画面スナップショット内にはレイアウトされていない。
+これらの項目はテーブルにのみ持つのか？
+その場合、更新タイミングはいつか？</t>
+    <rPh sb="30" eb="32">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヅキ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
+画面スナップショットの宿泊（回答）欄中に、宿泊代金が記載されているが、システム想定項目の宿泊・交通テーブルには該当項目が無い。どちらを正としたら良いか。</t>
     <rPh sb="26" eb="28">
-      <t>イチラン</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイトウ</t>
     </rPh>
     <rPh sb="43" eb="44">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ゲンジテン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
       <t>シュクハク</t>
     </rPh>
-    <rPh sb="55" eb="57">
+    <rPh sb="49" eb="51">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
       <t>コウツウ</t>
     </rPh>
-    <rPh sb="88" eb="90">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
-一覧に「担当者」という列があるが、ここにはDRに紐づく「担当MR」を表示すればよいか？</t>
-    <rPh sb="30" eb="33">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>＜新着　宿泊・交通・タクシーチケット手配依頼画面＞
-手配書一括印刷ボタン押下時にプレビュー画面へ遷移し、そのタイミングで手配ステータスを変更するということでよいか？（プレビューで印刷する/しないに関わらず）
-また、ステータスは、新着を示す値（受付中？）から次のステータス（受付済？）にするということでよかったか？</t>
-    <rPh sb="26" eb="29">
-      <t>テハイショ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>インサツ</t>
+    <rPh sb="81" eb="83">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>セイ</t>
     </rPh>
     <rPh sb="98" eb="99">
-      <t>カカ</t>
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -788,7 +925,67 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1231,11 +1428,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,20 +1566,20 @@
     </row>
     <row r="9" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <f t="shared" ref="A9:A33" si="0">ROW()-7</f>
+        <f t="shared" ref="A9:A34" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9">
         <v>41529</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="4"/>
@@ -1401,13 +1598,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9">
         <v>41529</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="4"/>
@@ -1426,13 +1623,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9">
         <v>41529</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4"/>
@@ -1451,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9">
         <v>41529</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="4"/>
@@ -1476,13 +1673,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9">
         <v>41529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
@@ -1501,13 +1698,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9">
         <v>41529</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="4"/>
@@ -1526,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9">
         <v>41529</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="4"/>
@@ -1542,15 +1739,23 @@
       <c r="K15" s="12"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9">
+        <v>41530</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="9"/>
@@ -1559,15 +1764,23 @@
       <c r="K16" s="12"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9">
+        <v>41530</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9"/>
@@ -1625,7 +1838,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
@@ -1642,7 +1855,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
@@ -1658,8 +1871,8 @@
       <c r="H22" s="9"/>
       <c r="I22" s="8"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
@@ -1709,8 +1922,8 @@
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="14"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
@@ -1778,7 +1991,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
@@ -1795,7 +2008,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="14"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
@@ -1811,8 +2024,8 @@
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
@@ -1848,6 +2061,23 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
+    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:K2"/>
@@ -1856,28 +2086,43 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A8:L8 A25:L33 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:L17 A19:L24 A13:A15 F13:L15">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A18:L18 A20:L25 A13:A15 F13:L15 A17:B17 D17:L17">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:L18">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>$L18&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A19:L19">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+      <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+      <formula>$L17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16 D16:L16">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$L16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$L16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G34">
       <formula1>"J,K,L,M"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">課題管理台帳!$7:$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -669,6 +669,45 @@
     </rPh>
     <rPh sb="98" eb="99">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜宿泊・交通手配依頼画面＞
+画面スナップショットの交通（回答）欄中に、「年齢」が記載されているが、回答に必要なのか？</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -925,7 +964,19 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1431,8 +1482,8 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1789,15 +1840,23 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9">
+        <v>41530</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="4"/>
       <c r="H18" s="9"/>
@@ -2087,41 +2146,51 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:L18 A20:L25 A13:A15 F13:L15 A17:B17 D17:L17">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="A18 A20:L25 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:L19">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="B18 D18:E18">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$L18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$L18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G34">
       <formula1>"J,K,L,M"</formula1>
     </dataValidation>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -708,6 +708,116 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜講演会参加ドクター情報・手配状況　帳票＞
+帳票のサンプルでは、＜交通手配（往路）＞＜交通手配（復路）＞の行程１の手段に「タクシー」と表記しているが、現在テーブルレイアウト上は、往路復路とタクチケを分けて登録しており、タクチケに往路復路の概念はないとのことだった。
+サンプルのレイアウトを変更することは可能か？</t>
+    <rPh sb="1" eb="4">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>オウロ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>オウロ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>フクロ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>オウロ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>フクロ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>＜講演会参加ドクター情報・手配状況　帳票＞
+帳票のサンプルでは、＜交通手配＞に「枚数」「喫煙区分」があるが、現在テーブルにこの項目はない。テーブルに列追加をするか？それともレイアウトを変更するか？</t>
+    <rPh sb="40" eb="42">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キツエン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -964,7 +1074,55 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1483,7 +1641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1865,15 +2023,23 @@
       <c r="K18" s="12"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9">
+        <v>41535</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="4"/>
       <c r="H19" s="9"/>
@@ -1882,15 +2048,23 @@
       <c r="K19" s="12"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9">
+        <v>41535</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="4"/>
       <c r="H20" s="9"/>
@@ -2146,48 +2320,63 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18 A20:L25 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="A18 A21:L25 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:L19">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="A19 D19:L19">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:E18">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>$L18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>$L19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$L19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>$L18&lt;&gt;""</formula>
+      <formula>$L20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -820,6 +820,73 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜検索 講演会基本情報一覧＞
+一覧に表示する「担当者」は下記のうちどれを表示したら良いか？
+　・企画担当者
+　・手配担当者
+　・トップツアー担当者</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1074,43 +1141,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1640,8 +1671,8 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2073,15 +2104,23 @@
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="9">
+        <v>41537</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4"/>
       <c r="H21" s="9"/>
@@ -2320,62 +2359,62 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21:L25 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:L19">
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:E18">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$L20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -826,65 +826,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜検索 講演会基本情報一覧＞
-一覧に表示する「担当者」は下記のうちどれを表示したら良いか？
-　・企画担当者
-　・手配担当者
-　・トップツアー担当者</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山田</t>
     <rPh sb="0" eb="2">
       <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（講演会）＞
+手配担当者の項目が無い。
+TOPTOUR側の講演会テーブルでも手配担当者項目は削除しても良いか。</t>
+    <rPh sb="17" eb="20">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1671,8 +1657,8 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2113,13 +2099,13 @@
         <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9">
+        <v>41542</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="9">
-        <v>41537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4"/>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -871,6 +871,162 @@
     </rPh>
     <rPh sb="67" eb="68">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（講演会）＞
+「会合種別」という項目があるが、TOPTOUR側の講演会テーブルにも必要か。（現在該当項目無し）</t>
+    <rPh sb="17" eb="20">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（講演会）＞
+「企画担当者事業部」項目が無い。
+TOPTOUR側の講演会テーブルから「企画担当者事業部」項目を削除して良いか。</t>
+    <rPh sb="17" eb="20">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会合＝講演会。
+講演会で統一する。</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出条件内の「担当者」は全てTOPTOURの担当者とする。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウトは、TOPTOURから頂いた最新のシステム想定項目一覧に従う。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シタガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,7 +1283,43 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1658,7 +1850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1835,10 +2027,16 @@
       <c r="F10" s="9"/>
       <c r="G10" s="4"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="10">
+        <v>41536</v>
+      </c>
+      <c r="L10" s="9">
+        <v>41536</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -1860,10 +2058,16 @@
       <c r="F11" s="9"/>
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="12">
+        <v>41536</v>
+      </c>
+      <c r="L11" s="9">
+        <v>41536</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -2010,10 +2214,16 @@
       <c r="F17" s="9"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="12">
+        <v>41541</v>
+      </c>
+      <c r="L17" s="14">
+        <v>41541</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
@@ -2090,7 +2300,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2115,15 +2325,23 @@
       <c r="K21" s="12"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="9">
+        <v>41542</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
       <c r="H22" s="9"/>
@@ -2132,15 +2350,23 @@
       <c r="K22" s="12"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="9">
+        <v>41542</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="4"/>
       <c r="H23" s="9"/>
@@ -2345,62 +2571,62 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18 A21:L25 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="A18 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20 A21:L25">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:L19">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:E18">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$L20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -913,60 +913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜NOZOMIテーブルレイアウト（講演会）＞
-「企画担当者事業部」項目が無い。
-TOPTOUR側の講演会テーブルから「企画担当者事業部」項目を削除して良いか。</t>
-    <rPh sb="17" eb="20">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会合＝講演会。
 講演会で統一する。</t>
     <rPh sb="0" eb="2">
@@ -1027,6 +973,45 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（講演会）＞
+「企画担当者事業部」項目が無い。
+BU=事業部、という理解で良いか。</t>
+    <rPh sb="17" eb="20">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1283,43 +1268,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1849,8 +1798,8 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2028,7 +1977,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="9"/>
       <c r="I10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="10">
@@ -2059,7 +2008,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
       <c r="I11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="12">
@@ -2215,7 +2164,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="9"/>
       <c r="I17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="12">
@@ -2350,7 +2299,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2359,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" s="9">
         <v>41542</v>
@@ -2571,62 +2520,62 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20 A21:L25">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:L19">
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:E18">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$L20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -875,44 +875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜NOZOMIテーブルレイアウト（講演会）＞
-「会合種別」という項目があるが、TOPTOUR側の講演会テーブルにも必要か。（現在該当項目無し）</t>
-    <rPh sb="17" eb="20">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会合＝講演会。
 講演会で統一する。</t>
     <rPh sb="0" eb="2">
@@ -977,40 +939,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜NOZOMIテーブルレイアウト（講演会）＞
-「企画担当者事業部」項目が無い。
-BU=事業部、という理解で良いか。</t>
-    <rPh sb="17" eb="20">
-      <t>コウエンカイ</t>
+    <t>＜NOZOMIテーブルレイアウト（全て）＞
+「会合種別」「削除フラグ」という項目があるが、TOPTOUR側のテーブルにも必要か。（現在該当項目無し）</t>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（会場手配）＞
+手配担当者の項目が入っている。
+TOPTOUR側の講演会テーブルでも手配担当者項目を追加すべきか。</t>
+    <rPh sb="17" eb="19">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テハイ</t>
     </rPh>
     <rPh sb="24" eb="26">
-      <t>キカク</t>
+      <t>テハイ</t>
     </rPh>
     <rPh sb="26" eb="29">
       <t>タントウシャ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="30" eb="32">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（全て）＞
+「事業部」項目が無い。
+BU=事業部、という理解で良いか。</t>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>ジギョウ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="25" eb="26">
       <t>ブ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="27" eb="29">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="36" eb="37">
+    <rPh sb="30" eb="31">
       <t>ナ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="37" eb="39">
       <t>ジギョウ</t>
     </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="39" eb="40">
       <t>ブ</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="44" eb="46">
       <t>リカイ</t>
     </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="47" eb="48">
       <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1268,7 +1304,31 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1795,11 +1855,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1933,7 +1993,7 @@
     </row>
     <row r="9" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <f t="shared" ref="A9:A34" si="0">ROW()-7</f>
+        <f t="shared" ref="A9:A35" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1977,7 +2037,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="9"/>
       <c r="I10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="10">
@@ -2008,7 +2068,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
       <c r="I11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="12">
@@ -2164,7 +2224,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="9"/>
       <c r="I17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="12">
@@ -2274,16 +2334,16 @@
       <c r="K21" s="12"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22" s="9">
         <v>41542</v>
@@ -2297,9 +2357,9 @@
       <c r="I22" s="8"/>
       <c r="J22" s="7"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2308,7 +2368,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="9">
         <v>41542</v>
@@ -2321,18 +2381,26 @@
       <c r="H23" s="9"/>
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="K23" s="12"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="9">
+        <v>41542</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
       <c r="H24" s="9"/>
@@ -2372,8 +2440,8 @@
       <c r="H26" s="9"/>
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="14"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
@@ -2441,7 +2509,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
@@ -2458,7 +2526,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="14"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
@@ -2474,8 +2542,8 @@
       <c r="H32" s="9"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
@@ -2511,6 +2579,23 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
+    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:K2"/>
@@ -2519,68 +2604,73 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A8:L8 A26:L34 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:L8 A27:L35 A9:A12 F9:L12">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20 A21:L25">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="A18 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20 A21:L21 A23:L26">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:L19">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:E18">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>$L20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A22:L22">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$L22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G35">
       <formula1>"J,K,L,M"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20 開発資料/99.質問票/質問票.xlsx
+++ b/20 開発資料/99.質問票/質問票.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -1047,6 +1047,72 @@
       <t>リカイ</t>
     </rPh>
     <rPh sb="47" eb="48">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト（全て）＞
+「連携ステータス」「External ID for Medius I/F」はTOPTOUR側のテーブルに必要か。</t>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜NOZOMIテーブルレイアウト＞
+9/25日現在、アクティス様から頂いたレイアウト中に「参加／不参加」を連携するファイルが含まれないが、連携して頂けるものと考えて良いか。</t>
+    <rPh sb="22" eb="25">
+      <t>ニチゲンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>フサンカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
       <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1304,7 +1370,31 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1859,7 +1949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2409,15 +2499,23 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="9">
+        <v>41542</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
       <c r="H25" s="9"/>
@@ -2426,15 +2524,23 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9">
+        <v>41542</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
       <c r="H26" s="9"/>
@@ -2605,67 +2711,67 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8:L8 A27:L35 A9:A12 F9:L12">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>$L8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A13:A15 F13:L15 A17:B17 D17:L17 F18:L18 A20 D20:L20 A21:L21 A23:L26">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>$L13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:L19">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E15">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
       <formula>$L9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>$L17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16:L16">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$L16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:E18">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>$L18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$L19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$L20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:L22">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$L22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
